--- a/3SCRUM-Completo/Casos de prueba.xlsx
+++ b/3SCRUM-Completo/Casos de prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Douglas\Desktop\Semestre- 2021-2022\Metodologia de software\2do Parcial\Nueva carpeta\Metodologia-de-Software-main\3SCRUM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AF77F1-4150-441F-BF42-D05CC6848AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A887A8D-C368-45C0-8A83-E3B8FA5D6CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="1335" windowWidth="20490" windowHeight="7875" xr2:uid="{BA4CA346-204F-44A9-8886-1F208B2FAEA9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{BA4CA346-204F-44A9-8886-1F208B2FAEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="81">
   <si>
     <t>PARTICIONES DE EQUIVALENCIA Y ANALISIS DE VALORES LIMITE</t>
   </si>
@@ -266,6 +266,15 @@
   </si>
   <si>
     <t>fercho, 12345, String==7 &amp;&amp; String==10</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ARTICULOS</t>
+  </si>
+  <si>
+    <t>REGISTRO DE CLIENTES</t>
+  </si>
+  <si>
+    <t>REGISTRO DE PROVEEDORES</t>
   </si>
 </sst>
 </file>
@@ -365,7 +374,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -908,11 +917,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1039,7 +1063,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1068,6 +1091,16 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1075,6 +1108,15 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1095,15 +1137,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1418,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0ABF3BF-0B13-4BA5-A4C3-F76197FD5ACB}">
-  <dimension ref="C2:K51"/>
+  <dimension ref="C2:K52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1432,18 +1465,19 @@
     <col min="4" max="4" width="32.5703125" customWidth="1"/>
     <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="11" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="72"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H3" s="9" t="s">
@@ -1460,7 +1494,7 @@
       </c>
     </row>
     <row r="4" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H4" s="73" t="s">
+      <c r="H4" s="79" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="35">
@@ -1474,7 +1508,7 @@
       </c>
     </row>
     <row r="5" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H5" s="74"/>
+      <c r="H5" s="80"/>
       <c r="I5" s="1">
         <v>2</v>
       </c>
@@ -1486,7 +1520,7 @@
       </c>
     </row>
     <row r="6" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H6" s="74"/>
+      <c r="H6" s="80"/>
       <c r="I6" s="1">
         <v>3</v>
       </c>
@@ -1498,7 +1532,7 @@
       </c>
     </row>
     <row r="7" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H7" s="75"/>
+      <c r="H7" s="81"/>
       <c r="I7" s="40">
         <v>4</v>
       </c>
@@ -1510,7 +1544,7 @@
       </c>
     </row>
     <row r="8" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H8" s="73" t="s">
+      <c r="H8" s="79" t="s">
         <v>5</v>
       </c>
       <c r="I8" s="16">
@@ -1524,7 +1558,7 @@
       </c>
     </row>
     <row r="9" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H9" s="74"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="3">
         <v>6</v>
       </c>
@@ -1536,7 +1570,7 @@
       </c>
     </row>
     <row r="10" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H10" s="74"/>
+      <c r="H10" s="80"/>
       <c r="I10" s="3">
         <v>7</v>
       </c>
@@ -1548,7 +1582,7 @@
       </c>
     </row>
     <row r="11" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="75"/>
+      <c r="H11" s="81"/>
       <c r="I11" s="19">
         <v>8</v>
       </c>
@@ -1610,7 +1644,7 @@
       </c>
     </row>
     <row r="16" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H16" s="76" t="s">
+      <c r="H16" s="82" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="16">
@@ -1624,7 +1658,7 @@
       </c>
     </row>
     <row r="17" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H17" s="77"/>
+      <c r="H17" s="83"/>
       <c r="I17" s="3">
         <v>14</v>
       </c>
@@ -1636,7 +1670,7 @@
       </c>
     </row>
     <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H18" s="76" t="s">
+      <c r="H18" s="82" t="s">
         <v>5</v>
       </c>
       <c r="I18" s="16">
@@ -1650,7 +1684,7 @@
       </c>
     </row>
     <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H19" s="78"/>
+      <c r="H19" s="84"/>
       <c r="I19" s="3">
         <v>18</v>
       </c>
@@ -1662,7 +1696,7 @@
       </c>
     </row>
     <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H20" s="78"/>
+      <c r="H20" s="84"/>
       <c r="I20" s="3">
         <v>19</v>
       </c>
@@ -1674,7 +1708,7 @@
       </c>
     </row>
     <row r="21" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H21" s="79"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="19">
         <v>20</v>
       </c>
@@ -1686,109 +1720,103 @@
       </c>
     </row>
     <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H22" s="67" t="s">
+      <c r="H22" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I22" s="43">
-        <v>21</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="K22" s="44" t="s">
-        <v>40</v>
+      <c r="I22" s="60">
+        <v>33</v>
+      </c>
+      <c r="J22" s="61">
+        <v>938045765</v>
+      </c>
+      <c r="K22" s="62">
+        <v>938045765</v>
       </c>
     </row>
     <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H23" s="68"/>
-      <c r="I23" s="15">
-        <v>22</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="45" t="s">
-        <v>45</v>
+      <c r="H23" s="74"/>
+      <c r="I23" s="57">
+        <v>34</v>
+      </c>
+      <c r="J23" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="K23" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H24" s="69"/>
-      <c r="I24" s="46">
-        <v>23</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>46</v>
-      </c>
-      <c r="K24" s="47" t="s">
-        <v>47</v>
+      <c r="H24" s="75"/>
+      <c r="I24" s="63">
+        <v>35</v>
+      </c>
+      <c r="J24" s="63">
+        <v>12345</v>
+      </c>
+      <c r="K24" s="64" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" s="70" t="s">
+      <c r="C25" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="72"/>
-      <c r="H25" s="67" t="s">
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="H25" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I25" s="43">
-        <v>24</v>
-      </c>
-      <c r="J25" s="43">
-        <v>560</v>
-      </c>
-      <c r="K25" s="48">
-        <v>560</v>
+      <c r="I25" s="60">
+        <v>36</v>
+      </c>
+      <c r="J25" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="K25" s="62" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="67" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="H26" s="74"/>
+      <c r="I26" s="57">
+        <v>37</v>
+      </c>
+      <c r="J26" s="56">
+        <v>3456</v>
+      </c>
+      <c r="K26" s="58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D27" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H26" s="68"/>
-      <c r="I26" s="15">
-        <v>25</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="8">
-        <v>928073303</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="69"/>
-      <c r="I27" s="46">
-        <v>26</v>
-      </c>
-      <c r="J27" s="46">
-        <v>1000000000000</v>
-      </c>
-      <c r="K27" s="47" t="s">
-        <v>49</v>
+      <c r="H27" s="75"/>
+      <c r="I27" s="63">
+        <v>38</v>
+      </c>
+      <c r="J27" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="64" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="3:11" x14ac:dyDescent="0.25">
@@ -1796,25 +1824,25 @@
         <v>5</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="H28" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="8">
+        <v>928073303</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="I28" s="43">
-        <v>27</v>
-      </c>
-      <c r="J28" s="43">
-        <v>300</v>
-      </c>
-      <c r="K28" s="48">
-        <v>300</v>
+      <c r="I28" s="60">
+        <v>42</v>
+      </c>
+      <c r="J28" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="K28" s="62" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="3:11" x14ac:dyDescent="0.25">
@@ -1822,23 +1850,23 @@
         <v>5</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H29" s="68"/>
-      <c r="I29" s="15">
-        <v>28</v>
-      </c>
-      <c r="J29" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K29" s="45" t="s">
-        <v>48</v>
+        <v>67</v>
+      </c>
+      <c r="H29" s="74"/>
+      <c r="I29" s="57">
+        <v>43</v>
+      </c>
+      <c r="J29" s="56">
+        <v>3456</v>
+      </c>
+      <c r="K29" s="58" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1846,439 +1874,498 @@
         <v>5</v>
       </c>
       <c r="D30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30" s="75"/>
+      <c r="I30" s="63">
+        <v>44</v>
+      </c>
+      <c r="J30" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="K30" s="64" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E31" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="69"/>
-      <c r="I30" s="46">
+      <c r="H31" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="60">
+        <v>45</v>
+      </c>
+      <c r="J31" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="K31" s="62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C32" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="12">
+        <v>969699797</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H32" s="74"/>
+      <c r="I32" s="57">
+        <v>46</v>
+      </c>
+      <c r="J32" s="56">
+        <v>3456</v>
+      </c>
+      <c r="K32" s="58" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="67" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="H33" s="75"/>
+      <c r="I33" s="63">
+        <v>47</v>
+      </c>
+      <c r="J33" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="K33" s="64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H34" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="60">
+        <v>39</v>
+      </c>
+      <c r="J34" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="K34" s="62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D35" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="51">
+        <v>938045765</v>
+      </c>
+      <c r="F35" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="74"/>
+      <c r="I35" s="57">
+        <v>40</v>
+      </c>
+      <c r="J35" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="K35" s="59" t="s">
         <v>29</v>
-      </c>
-      <c r="J30" s="46">
-        <v>99999999</v>
-      </c>
-      <c r="K30" s="47" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="12">
-        <v>969699797</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="H31" s="67" t="s">
-        <v>37</v>
-      </c>
-      <c r="I31" s="43">
-        <v>30</v>
-      </c>
-      <c r="J31" s="43">
-        <v>2</v>
-      </c>
-      <c r="K31" s="48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="H32" s="68"/>
-      <c r="I32" s="15">
-        <v>31</v>
-      </c>
-      <c r="J32" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="K32" s="45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="14">
-        <v>560</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H33" s="68"/>
-      <c r="I33" s="55">
-        <v>32</v>
-      </c>
-      <c r="J33" s="55">
-        <v>1000000000</v>
-      </c>
-      <c r="K33" s="56" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E34" s="14">
-        <v>300</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H34" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I34" s="61">
-        <v>33</v>
-      </c>
-      <c r="J34" s="62">
-        <v>938045765</v>
-      </c>
-      <c r="K34" s="63">
-        <v>938045765</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E35" s="14">
-        <v>2</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H35" s="81"/>
-      <c r="I35" s="58">
-        <v>34</v>
-      </c>
-      <c r="J35" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="K35" s="59" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="36" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C36" s="50" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D36" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="51">
-        <v>938045765</v>
+        <v>54</v>
+      </c>
+      <c r="E36" s="51" t="s">
+        <v>58</v>
       </c>
       <c r="F36" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="H36" s="82"/>
-      <c r="I36" s="64">
-        <v>35</v>
-      </c>
-      <c r="J36" s="64">
-        <v>12345</v>
-      </c>
-      <c r="K36" s="65" t="s">
-        <v>70</v>
+        <v>65</v>
+      </c>
+      <c r="H36" s="75"/>
+      <c r="I36" s="63">
+        <v>41</v>
+      </c>
+      <c r="J36" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C37" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="50" t="s">
-        <v>54</v>
+        <v>37</v>
+      </c>
+      <c r="D37" s="53" t="s">
+        <v>55</v>
       </c>
       <c r="E37" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F37" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I37" s="61">
-        <v>36</v>
-      </c>
-      <c r="J37" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="K37" s="63" t="s">
-        <v>58</v>
+        <v>64</v>
+      </c>
+      <c r="H37" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="I37" s="60">
+        <v>48</v>
+      </c>
+      <c r="J37" s="65">
+        <v>995305943</v>
+      </c>
+      <c r="K37" s="65">
+        <v>995305943</v>
       </c>
     </row>
     <row r="38" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C38" s="50" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D38" s="53" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E38" s="51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F38" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="58">
-        <v>37</v>
-      </c>
-      <c r="J38" s="57">
-        <v>3456</v>
-      </c>
-      <c r="K38" s="59" t="s">
-        <v>31</v>
+      <c r="H38" s="74"/>
+      <c r="I38" s="57">
+        <v>49</v>
+      </c>
+      <c r="J38" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="K38" s="58" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C39" s="50" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="D39" s="53" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="E39" s="51" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="H39" s="82"/>
-      <c r="I39" s="64">
-        <v>38</v>
-      </c>
-      <c r="J39" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="K39" s="65" t="s">
-        <v>72</v>
+        <v>63</v>
+      </c>
+      <c r="H39" s="75"/>
+      <c r="I39" s="63">
+        <v>50</v>
+      </c>
+      <c r="J39" s="63">
+        <v>12345</v>
+      </c>
+      <c r="K39" s="64" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C40" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="E40" s="52">
+        <v>995305943</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="D40" s="53" t="s">
-        <v>12</v>
-      </c>
-      <c r="E40" s="51" t="s">
-        <v>59</v>
-      </c>
-      <c r="F40" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="H40" s="80" t="s">
+      <c r="I40" s="43">
+        <v>21</v>
+      </c>
+      <c r="J40" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="K40" s="44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="67" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="68"/>
+      <c r="E41" s="68"/>
+      <c r="F41" s="69"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="15">
+        <v>22</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K41" s="45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C42" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" s="72"/>
+      <c r="I42" s="46">
+        <v>23</v>
+      </c>
+      <c r="J42" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="K42" s="47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I40" s="61">
+      <c r="D43" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I43" s="43">
+        <v>24</v>
+      </c>
+      <c r="J43" s="43">
+        <v>560</v>
+      </c>
+      <c r="K43" s="48">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E44" s="14">
+        <v>560</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H44" s="71"/>
+      <c r="I44" s="15">
+        <v>25</v>
+      </c>
+      <c r="J44" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="14">
+        <v>300</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="71"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="55"/>
+    </row>
+    <row r="46" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C46" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J40" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="K40" s="63" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" s="50"/>
-      <c r="D41" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="E41" s="52">
-        <v>995305943</v>
-      </c>
-      <c r="F41" s="51" t="s">
-        <v>77</v>
-      </c>
-      <c r="H41" s="81"/>
-      <c r="I41" s="58">
+      <c r="E46" s="14">
+        <v>2</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="J41" s="57">
-        <v>3456</v>
-      </c>
-      <c r="K41" s="59" t="s">
+      <c r="H46" s="72"/>
+      <c r="I46" s="46">
+        <v>26</v>
+      </c>
+      <c r="J46" s="46">
+        <v>1000000000000</v>
+      </c>
+      <c r="K46" s="47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H47" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I47" s="43">
+        <v>27</v>
+      </c>
+      <c r="J47" s="43">
+        <v>300</v>
+      </c>
+      <c r="K47" s="48">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="H48" s="71"/>
+      <c r="I48" s="15">
+        <v>28</v>
+      </c>
+      <c r="J48" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H49" s="72"/>
+      <c r="I49" s="46">
+        <v>29</v>
+      </c>
+      <c r="J49" s="46">
+        <v>99999999</v>
+      </c>
+      <c r="K49" s="47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H50" s="70" t="s">
+        <v>53</v>
+      </c>
+      <c r="I50" s="43">
+        <v>30</v>
+      </c>
+      <c r="J50" s="43">
+        <v>2</v>
+      </c>
+      <c r="K50" s="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="8:11" x14ac:dyDescent="0.25">
+      <c r="H51" s="71"/>
+      <c r="I51" s="15">
         <v>31</v>
       </c>
-    </row>
-    <row r="42" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H42" s="82"/>
-      <c r="I42" s="64">
-        <v>44</v>
-      </c>
-      <c r="J42" s="64" t="s">
-        <v>75</v>
-      </c>
-      <c r="K42" s="65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H43" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I43" s="61">
-        <v>45</v>
-      </c>
-      <c r="J43" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="K43" s="63" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H44" s="81"/>
-      <c r="I44" s="58">
-        <v>46</v>
-      </c>
-      <c r="J44" s="57">
-        <v>3456</v>
-      </c>
-      <c r="K44" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H45" s="82"/>
-      <c r="I45" s="64">
-        <v>47</v>
-      </c>
-      <c r="J45" s="64" t="s">
-        <v>71</v>
-      </c>
-      <c r="K45" s="65" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H46" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" s="61">
-        <v>39</v>
-      </c>
-      <c r="J46" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="K46" s="63" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="H47" s="81"/>
-      <c r="I47" s="58">
-        <v>40</v>
-      </c>
-      <c r="J47" s="57" t="s">
-        <v>73</v>
-      </c>
-      <c r="K47" s="60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H48" s="82"/>
-      <c r="I48" s="64">
-        <v>41</v>
-      </c>
-      <c r="J48" s="64" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" s="65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="49" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H49" s="80" t="s">
-        <v>53</v>
-      </c>
-      <c r="I49" s="61">
+      <c r="J51" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K51" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="J49" s="66">
-        <v>995305943</v>
-      </c>
-      <c r="K49" s="66">
-        <v>995305943</v>
-      </c>
-    </row>
-    <row r="50" spans="8:11" x14ac:dyDescent="0.25">
-      <c r="H50" s="81"/>
-      <c r="I50" s="58">
-        <v>49</v>
-      </c>
-      <c r="J50" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="K50" s="59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H51" s="82"/>
-      <c r="I51" s="64">
-        <v>50</v>
-      </c>
-      <c r="J51" s="64">
-        <v>12345</v>
-      </c>
-      <c r="K51" s="65" t="s">
+    </row>
+    <row r="52" spans="8:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H52" s="72"/>
+      <c r="I52" s="54">
         <v>32</v>
       </c>
+      <c r="J52" s="54">
+        <v>1000000000</v>
+      </c>
+      <c r="K52" s="55" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H46:H48"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="H43:H45"/>
-    <mergeCell ref="H49:H51"/>
-    <mergeCell ref="H25:H27"/>
+  <mergeCells count="19">
+    <mergeCell ref="H34:H36"/>
     <mergeCell ref="H28:H30"/>
     <mergeCell ref="H31:H33"/>
-    <mergeCell ref="H34:H36"/>
     <mergeCell ref="H37:H39"/>
-    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="H47:H49"/>
+    <mergeCell ref="H25:H27"/>
+    <mergeCell ref="H40:H42"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="H2:K2"/>
     <mergeCell ref="H8:H11"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="H18:H21"/>
     <mergeCell ref="H4:H7"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="H50:H52"/>
+    <mergeCell ref="H22:H24"/>
+    <mergeCell ref="C33:F33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
